--- a/data/pca/factorExposure/factorExposure_2016-11-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01767850628377699</v>
+        <v>0.01551449035138845</v>
       </c>
       <c r="C2">
-        <v>0.04470114711174655</v>
+        <v>-0.04195890194765103</v>
       </c>
       <c r="D2">
-        <v>-0.02117996353849264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05569436312947241</v>
+      </c>
+      <c r="E2">
+        <v>-0.01937375216533336</v>
+      </c>
+      <c r="F2">
+        <v>-0.09152345100169426</v>
+      </c>
+      <c r="G2">
+        <v>-0.03390120459700721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05206923935765716</v>
+        <v>0.03455016327268407</v>
       </c>
       <c r="C3">
-        <v>0.103523025011389</v>
+        <v>-0.08315656914274565</v>
       </c>
       <c r="D3">
-        <v>-0.02586952331744927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09578955301143005</v>
+      </c>
+      <c r="E3">
+        <v>-0.02718674122798323</v>
+      </c>
+      <c r="F3">
+        <v>-0.0842987836701132</v>
+      </c>
+      <c r="G3">
+        <v>0.06808670422777387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06076524556893183</v>
+        <v>0.059123893988226</v>
       </c>
       <c r="C4">
-        <v>0.06742845504011707</v>
+        <v>-0.06176260804396257</v>
       </c>
       <c r="D4">
-        <v>-0.001013811470187834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05602805651698686</v>
+      </c>
+      <c r="E4">
+        <v>-0.01410851035038272</v>
+      </c>
+      <c r="F4">
+        <v>-0.09664352819439093</v>
+      </c>
+      <c r="G4">
+        <v>0.02950940247723114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02558557109539526</v>
+        <v>0.03431295098037026</v>
       </c>
       <c r="C6">
-        <v>0.05095744262145342</v>
+        <v>-0.03894509893841039</v>
       </c>
       <c r="D6">
-        <v>-0.008126759126179599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06521772205189762</v>
+      </c>
+      <c r="E6">
+        <v>-0.01669992320744343</v>
+      </c>
+      <c r="F6">
+        <v>-0.08768233330724622</v>
+      </c>
+      <c r="G6">
+        <v>0.006863507790242976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02117442887697425</v>
+        <v>0.02142748972248905</v>
       </c>
       <c r="C7">
-        <v>0.04548314905792052</v>
+        <v>-0.03635641311416118</v>
       </c>
       <c r="D7">
-        <v>0.0141964895555717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03167065259286276</v>
+      </c>
+      <c r="E7">
+        <v>0.0001633644198787158</v>
+      </c>
+      <c r="F7">
+        <v>-0.1178328123272733</v>
+      </c>
+      <c r="G7">
+        <v>-0.009800901302426125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001770890672074728</v>
+        <v>0.006326355286853227</v>
       </c>
       <c r="C8">
-        <v>0.01028105036953327</v>
+        <v>-0.01971451039441757</v>
       </c>
       <c r="D8">
-        <v>-0.01515440024128295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03405672082617155</v>
+      </c>
+      <c r="E8">
+        <v>-0.01243662883862296</v>
+      </c>
+      <c r="F8">
+        <v>-0.06925505474990683</v>
+      </c>
+      <c r="G8">
+        <v>0.005933131228788314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02760953515375803</v>
+        <v>0.03712270840835544</v>
       </c>
       <c r="C9">
-        <v>0.04607456644393563</v>
+        <v>-0.04937355543231554</v>
       </c>
       <c r="D9">
-        <v>0.004519330196723337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03903257234462053</v>
+      </c>
+      <c r="E9">
+        <v>-0.008851231430083985</v>
+      </c>
+      <c r="F9">
+        <v>-0.1001876096192077</v>
+      </c>
+      <c r="G9">
+        <v>0.01270520918197862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08472570353772214</v>
+        <v>0.09649574055481905</v>
       </c>
       <c r="C10">
-        <v>-0.1975574718195371</v>
+        <v>0.1918415678215947</v>
       </c>
       <c r="D10">
-        <v>-0.02337315822708451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007439672672488699</v>
+      </c>
+      <c r="E10">
+        <v>-0.03572603225780787</v>
+      </c>
+      <c r="F10">
+        <v>-0.04880508527272464</v>
+      </c>
+      <c r="G10">
+        <v>0.0002857165283887884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04095066980831801</v>
+        <v>0.03695486517065622</v>
       </c>
       <c r="C11">
-        <v>0.05594777179648219</v>
+        <v>-0.05116896143448978</v>
       </c>
       <c r="D11">
-        <v>0.01123661360347313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0267891248083613</v>
+      </c>
+      <c r="E11">
+        <v>0.01370411549169684</v>
+      </c>
+      <c r="F11">
+        <v>-0.06812937725383555</v>
+      </c>
+      <c r="G11">
+        <v>0.005442366281547172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03520562572365492</v>
+        <v>0.03759192226515463</v>
       </c>
       <c r="C12">
-        <v>0.04647342369661137</v>
+        <v>-0.04660054269139943</v>
       </c>
       <c r="D12">
-        <v>0.01030207327585622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02022521008719948</v>
+      </c>
+      <c r="E12">
+        <v>0.004121221723697219</v>
+      </c>
+      <c r="F12">
+        <v>-0.07052308692591149</v>
+      </c>
+      <c r="G12">
+        <v>0.001813155216140325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01040182179669566</v>
+        <v>0.0139133788710226</v>
       </c>
       <c r="C13">
-        <v>0.04192094257827641</v>
+        <v>-0.03988690268356097</v>
       </c>
       <c r="D13">
-        <v>-0.01628575587747727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06192990600753532</v>
+      </c>
+      <c r="E13">
+        <v>-0.029110085356584</v>
+      </c>
+      <c r="F13">
+        <v>-0.1341044141618464</v>
+      </c>
+      <c r="G13">
+        <v>0.008340710428893908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006178346533024944</v>
+        <v>0.007474719097023277</v>
       </c>
       <c r="C14">
-        <v>0.02911322934254604</v>
+        <v>-0.02499834283595158</v>
       </c>
       <c r="D14">
-        <v>0.01377180856602983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02403415425401919</v>
+      </c>
+      <c r="E14">
+        <v>-0.006995728246114877</v>
+      </c>
+      <c r="F14">
+        <v>-0.1040740386392786</v>
+      </c>
+      <c r="G14">
+        <v>-0.01744491829154453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001180315206433066</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001054717638829443</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001460996667135112</v>
+      </c>
+      <c r="E15">
+        <v>0.0009141116575197668</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007078772238404019</v>
+      </c>
+      <c r="G15">
+        <v>-0.0008342691772207419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03492715329748595</v>
+        <v>0.03448111256089606</v>
       </c>
       <c r="C16">
-        <v>0.04097257150197247</v>
+        <v>-0.0442265865103423</v>
       </c>
       <c r="D16">
-        <v>0.002500948577792458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02430616858172696</v>
+      </c>
+      <c r="E16">
+        <v>-0.002095383066168121</v>
+      </c>
+      <c r="F16">
+        <v>-0.07359179136376873</v>
+      </c>
+      <c r="G16">
+        <v>-0.008280191660658411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03154606837389134</v>
+        <v>0.01996364199420513</v>
       </c>
       <c r="C19">
-        <v>0.05975159228597354</v>
+        <v>-0.04784129536870404</v>
       </c>
       <c r="D19">
-        <v>-0.0361302929687761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09938801226384922</v>
+      </c>
+      <c r="E19">
+        <v>-0.03598409451731862</v>
+      </c>
+      <c r="F19">
+        <v>-0.1357160588462468</v>
+      </c>
+      <c r="G19">
+        <v>-0.02355107213645972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01358324960938734</v>
+        <v>0.01469324498406061</v>
       </c>
       <c r="C20">
-        <v>0.04464178108572465</v>
+        <v>-0.0389768166733141</v>
       </c>
       <c r="D20">
-        <v>-0.02148334607843264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04557690983761708</v>
+      </c>
+      <c r="E20">
+        <v>-0.03498671724815437</v>
+      </c>
+      <c r="F20">
+        <v>-0.1009329228504762</v>
+      </c>
+      <c r="G20">
+        <v>-0.007061181171310204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.006566882374128316</v>
+        <v>0.008761254697570785</v>
       </c>
       <c r="C21">
-        <v>0.0406309887047579</v>
+        <v>-0.04020265790950968</v>
       </c>
       <c r="D21">
-        <v>-0.0254895783076717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06252613527751993</v>
+      </c>
+      <c r="E21">
+        <v>-0.03081861281329095</v>
+      </c>
+      <c r="F21">
+        <v>-0.1490580628921475</v>
+      </c>
+      <c r="G21">
+        <v>-0.005427329913119156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003943490153688277</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01431496844654297</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02762466712232127</v>
+      </c>
+      <c r="E22">
+        <v>-0.001140277782581387</v>
+      </c>
+      <c r="F22">
+        <v>-0.02113704685227338</v>
+      </c>
+      <c r="G22">
+        <v>0.03382599674332509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003997640636526421</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01426756176353936</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02737073513575646</v>
+      </c>
+      <c r="E23">
+        <v>-0.001445218760816375</v>
+      </c>
+      <c r="F23">
+        <v>-0.02086656553925407</v>
+      </c>
+      <c r="G23">
+        <v>0.03384651707105262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02883326483276222</v>
+        <v>0.03270076296476259</v>
       </c>
       <c r="C24">
-        <v>0.04789210310670097</v>
+        <v>-0.05170054513921508</v>
       </c>
       <c r="D24">
-        <v>0.01185685517142194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02169675624027216</v>
+      </c>
+      <c r="E24">
+        <v>0.004586743738184983</v>
+      </c>
+      <c r="F24">
+        <v>-0.07811007504105943</v>
+      </c>
+      <c r="G24">
+        <v>-0.003103748861530788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04648113599431598</v>
+        <v>0.04325055491018637</v>
       </c>
       <c r="C25">
-        <v>0.05605936712107302</v>
+        <v>-0.0565317346475413</v>
       </c>
       <c r="D25">
-        <v>0.02271368580290562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01815271858599311</v>
+      </c>
+      <c r="E25">
+        <v>0.006925254819070108</v>
+      </c>
+      <c r="F25">
+        <v>-0.08437374658805125</v>
+      </c>
+      <c r="G25">
+        <v>0.01422823391292982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009125771083015998</v>
+        <v>0.01509780286849356</v>
       </c>
       <c r="C26">
-        <v>0.01337384167809388</v>
+        <v>-0.01275434517507049</v>
       </c>
       <c r="D26">
-        <v>0.0003785708691689914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01796660346871667</v>
+      </c>
+      <c r="E26">
+        <v>-0.00921216727335363</v>
+      </c>
+      <c r="F26">
+        <v>-0.08209891127448452</v>
+      </c>
+      <c r="G26">
+        <v>-0.02087156794540444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09888807189091151</v>
+        <v>0.1302211380030747</v>
       </c>
       <c r="C28">
-        <v>-0.2245557286158659</v>
+        <v>0.243829666797071</v>
       </c>
       <c r="D28">
-        <v>-0.01344766182326017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.009973602392830974</v>
+      </c>
+      <c r="E28">
+        <v>-0.03651154205855871</v>
+      </c>
+      <c r="F28">
+        <v>-0.0616678109234027</v>
+      </c>
+      <c r="G28">
+        <v>0.006650350959609025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01190139035289638</v>
+        <v>0.008642230711572402</v>
       </c>
       <c r="C29">
-        <v>0.02103051259323593</v>
+        <v>-0.02133532268002052</v>
       </c>
       <c r="D29">
-        <v>0.01162777619173047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01428848556754056</v>
+      </c>
+      <c r="E29">
+        <v>-0.01145052688604273</v>
+      </c>
+      <c r="F29">
+        <v>-0.0978312068910839</v>
+      </c>
+      <c r="G29">
+        <v>-0.004459486594305673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04073514559645038</v>
+        <v>0.03879181874124756</v>
       </c>
       <c r="C30">
-        <v>0.07327591372560764</v>
+        <v>-0.06250058060921526</v>
       </c>
       <c r="D30">
-        <v>0.0008377221001153417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09485076780792058</v>
+      </c>
+      <c r="E30">
+        <v>0.01270531954244781</v>
+      </c>
+      <c r="F30">
+        <v>-0.1106537363202675</v>
+      </c>
+      <c r="G30">
+        <v>-0.02845360820074279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04304113754540837</v>
+        <v>0.05781009762659642</v>
       </c>
       <c r="C31">
-        <v>0.0312756007704246</v>
+        <v>-0.04357597804899258</v>
       </c>
       <c r="D31">
-        <v>0.01158321626865306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.001294504106885019</v>
+      </c>
+      <c r="E31">
+        <v>-0.03297793629209345</v>
+      </c>
+      <c r="F31">
+        <v>-0.09470883716238311</v>
+      </c>
+      <c r="G31">
+        <v>0.03159899871847377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008539739095780766</v>
+        <v>0.004693728639205278</v>
       </c>
       <c r="C32">
-        <v>0.03394751248998044</v>
+        <v>-0.02750281026690685</v>
       </c>
       <c r="D32">
-        <v>-0.01081874538053577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04416890399437606</v>
+      </c>
+      <c r="E32">
+        <v>0.001947497370529284</v>
+      </c>
+      <c r="F32">
+        <v>-0.07822597691505885</v>
+      </c>
+      <c r="G32">
+        <v>-0.0109572768395673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.031086302536861</v>
+        <v>0.02679439063590234</v>
       </c>
       <c r="C33">
-        <v>0.05734948741878185</v>
+        <v>-0.04942031875641174</v>
       </c>
       <c r="D33">
-        <v>-0.004239751478468314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07189671599063543</v>
+      </c>
+      <c r="E33">
+        <v>-0.008743122630425057</v>
+      </c>
+      <c r="F33">
+        <v>-0.1510012935616625</v>
+      </c>
+      <c r="G33">
+        <v>0.00953503354619506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05230763751260071</v>
+        <v>0.04305918289907799</v>
       </c>
       <c r="C34">
-        <v>0.05474154552700621</v>
+        <v>-0.06182567128706812</v>
       </c>
       <c r="D34">
-        <v>0.01744600504961672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02511880549179725</v>
+      </c>
+      <c r="E34">
+        <v>0.02039629344725243</v>
+      </c>
+      <c r="F34">
+        <v>-0.07699217558067804</v>
+      </c>
+      <c r="G34">
+        <v>0.001793465128189282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.009554279728544439</v>
+        <v>0.0160810799885238</v>
       </c>
       <c r="C36">
-        <v>0.008896529578272741</v>
+        <v>-0.008221986964439303</v>
       </c>
       <c r="D36">
-        <v>0.005652931733596186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02082943683447367</v>
+      </c>
+      <c r="E36">
+        <v>-0.01357231680530082</v>
+      </c>
+      <c r="F36">
+        <v>-0.09573559972043982</v>
+      </c>
+      <c r="G36">
+        <v>0.002068962187569631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03693685534135156</v>
+        <v>0.0283913620698297</v>
       </c>
       <c r="C38">
-        <v>0.02174593440826948</v>
+        <v>-0.02182958221788826</v>
       </c>
       <c r="D38">
-        <v>0.009894014560945833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02316162931371425</v>
+      </c>
+      <c r="E38">
+        <v>-0.01435546636507999</v>
+      </c>
+      <c r="F38">
+        <v>-0.08570694610699753</v>
+      </c>
+      <c r="G38">
+        <v>0.004157892902356041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03737144209156829</v>
+        <v>0.03734355824449302</v>
       </c>
       <c r="C39">
-        <v>0.08389951429936954</v>
+        <v>-0.07193897052936471</v>
       </c>
       <c r="D39">
-        <v>-0.005621094651105746</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0496969900657221</v>
+      </c>
+      <c r="E39">
+        <v>0.01350111972740627</v>
+      </c>
+      <c r="F39">
+        <v>-0.08702494301611111</v>
+      </c>
+      <c r="G39">
+        <v>-0.03311920533670894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01754231194164127</v>
+        <v>0.01825574294636172</v>
       </c>
       <c r="C40">
-        <v>0.0267548911150823</v>
+        <v>-0.03710910603841388</v>
       </c>
       <c r="D40">
-        <v>-0.01945040249831385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03550786264928562</v>
+      </c>
+      <c r="E40">
+        <v>-0.03401848153961166</v>
+      </c>
+      <c r="F40">
+        <v>-0.118060869206005</v>
+      </c>
+      <c r="G40">
+        <v>0.04070526912596288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01065207209756633</v>
+        <v>0.01861512470876742</v>
       </c>
       <c r="C41">
-        <v>0.0004137665069858025</v>
+        <v>-0.001627350868125131</v>
       </c>
       <c r="D41">
-        <v>0.0077675736543534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01540060540554082</v>
+      </c>
+      <c r="E41">
+        <v>-0.01813325773349888</v>
+      </c>
+      <c r="F41">
+        <v>-0.08518239750428555</v>
+      </c>
+      <c r="G41">
+        <v>-0.00419724490453206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01545255220333226</v>
+        <v>0.009091753245273584</v>
       </c>
       <c r="C42">
-        <v>0.02875027401524525</v>
+        <v>-0.01533985916220897</v>
       </c>
       <c r="D42">
-        <v>-0.02032603491440058</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00680036355464521</v>
+      </c>
+      <c r="E42">
+        <v>-0.0178285013862348</v>
+      </c>
+      <c r="F42">
+        <v>0.01513328989962695</v>
+      </c>
+      <c r="G42">
+        <v>0.008882099718134688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03240028571087095</v>
+        <v>0.03199228994908428</v>
       </c>
       <c r="C43">
-        <v>0.01282317550331614</v>
+        <v>-0.01488605126373348</v>
       </c>
       <c r="D43">
-        <v>0.006690193336106122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03470801293819554</v>
+      </c>
+      <c r="E43">
+        <v>-0.01486868342986243</v>
+      </c>
+      <c r="F43">
+        <v>-0.1077610124692884</v>
+      </c>
+      <c r="G43">
+        <v>0.01858361140740937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02093867138802128</v>
+        <v>0.01659474550396147</v>
       </c>
       <c r="C44">
-        <v>0.05479712008741672</v>
+        <v>-0.05293774366027351</v>
       </c>
       <c r="D44">
-        <v>-0.003161926416054955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03840036831753659</v>
+      </c>
+      <c r="E44">
+        <v>-0.02727766184475549</v>
+      </c>
+      <c r="F44">
+        <v>-0.1126815492574672</v>
+      </c>
+      <c r="G44">
+        <v>-0.01247031443190101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0004135509195147715</v>
+        <v>0.01075477366987897</v>
       </c>
       <c r="C46">
-        <v>0.0142328925915249</v>
+        <v>-0.01728312470296596</v>
       </c>
       <c r="D46">
-        <v>0.01744236795828685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.006496587838858699</v>
+      </c>
+      <c r="E46">
+        <v>-0.01783067688380112</v>
+      </c>
+      <c r="F46">
+        <v>-0.1098542111659544</v>
+      </c>
+      <c r="G46">
+        <v>-0.00999922153848257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07768436971847345</v>
+        <v>0.08861009707454477</v>
       </c>
       <c r="C47">
-        <v>0.06906923843363216</v>
+        <v>-0.07387378694286259</v>
       </c>
       <c r="D47">
-        <v>0.007674318356253387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009038304081869617</v>
+      </c>
+      <c r="E47">
+        <v>-0.04056912310910825</v>
+      </c>
+      <c r="F47">
+        <v>-0.09407309468150836</v>
+      </c>
+      <c r="G47">
+        <v>0.03557955827741802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01771355191209524</v>
+        <v>0.01737631841882766</v>
       </c>
       <c r="C48">
-        <v>0.01077096468212795</v>
+        <v>-0.01448028339377474</v>
       </c>
       <c r="D48">
-        <v>0.009335657477631749</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01430543678502567</v>
+      </c>
+      <c r="E48">
+        <v>-0.0229871356869666</v>
+      </c>
+      <c r="F48">
+        <v>-0.1069103784757558</v>
+      </c>
+      <c r="G48">
+        <v>-0.004117678240882758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08613937314628775</v>
+        <v>0.07471663621495862</v>
       </c>
       <c r="C50">
-        <v>0.06763278634519194</v>
+        <v>-0.06689339068162077</v>
       </c>
       <c r="D50">
-        <v>0.02029337766317925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0008952564430965879</v>
+      </c>
+      <c r="E50">
+        <v>-0.03419357266380561</v>
+      </c>
+      <c r="F50">
+        <v>-0.09229548445553326</v>
+      </c>
+      <c r="G50">
+        <v>0.06760554869363981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01553589856745823</v>
+        <v>0.01194256827862059</v>
       </c>
       <c r="C51">
-        <v>0.0395768009224271</v>
+        <v>-0.03216270300348333</v>
       </c>
       <c r="D51">
-        <v>0.008594069751670239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04203262138680403</v>
+      </c>
+      <c r="E51">
+        <v>0.003461047704115431</v>
+      </c>
+      <c r="F51">
+        <v>-0.09873346362807524</v>
+      </c>
+      <c r="G51">
+        <v>-0.01888754663960557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09729940566013001</v>
+        <v>0.09264051968127221</v>
       </c>
       <c r="C53">
-        <v>0.07022185045877292</v>
+        <v>-0.08423237847317651</v>
       </c>
       <c r="D53">
-        <v>0.02958477427570855</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03374134054565178</v>
+      </c>
+      <c r="E53">
+        <v>-0.04865186745552424</v>
+      </c>
+      <c r="F53">
+        <v>-0.101361262440629</v>
+      </c>
+      <c r="G53">
+        <v>0.04052138907216252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03076436527099337</v>
+        <v>0.03153033073231492</v>
       </c>
       <c r="C54">
-        <v>0.006606651326722611</v>
+        <v>-0.01961181658063628</v>
       </c>
       <c r="D54">
-        <v>0.001629648460670406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02799660218519651</v>
+      </c>
+      <c r="E54">
+        <v>-0.01199244284232506</v>
+      </c>
+      <c r="F54">
+        <v>-0.1085293614116895</v>
+      </c>
+      <c r="G54">
+        <v>-0.003763648627081907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07419188651213791</v>
+        <v>0.084395925484537</v>
       </c>
       <c r="C55">
-        <v>0.0650718397381477</v>
+        <v>-0.06736900105099244</v>
       </c>
       <c r="D55">
-        <v>0.02832997763989993</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04067835192016904</v>
+      </c>
+      <c r="E55">
+        <v>-0.04649742417059333</v>
+      </c>
+      <c r="F55">
+        <v>-0.06833317035854637</v>
+      </c>
+      <c r="G55">
+        <v>0.03560738004259699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.150806648338689</v>
+        <v>0.1451833306340962</v>
       </c>
       <c r="C56">
-        <v>0.09252382632839588</v>
+        <v>-0.1016190546690414</v>
       </c>
       <c r="D56">
-        <v>0.02507752447778643</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04042356693970441</v>
+      </c>
+      <c r="E56">
+        <v>-0.05094018557873173</v>
+      </c>
+      <c r="F56">
+        <v>-0.0597810247087783</v>
+      </c>
+      <c r="G56">
+        <v>0.04205384109666248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.004073568479255912</v>
+        <v>0.001541413176807356</v>
       </c>
       <c r="C57">
-        <v>0.006858262815116855</v>
+        <v>-0.003100100168087825</v>
       </c>
       <c r="D57">
-        <v>-0.03288726148917773</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02565235573820775</v>
+      </c>
+      <c r="E57">
+        <v>-0.00754545391668391</v>
+      </c>
+      <c r="F57">
+        <v>-0.008634445748638505</v>
+      </c>
+      <c r="G57">
+        <v>-0.005051214021916154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06414199718390082</v>
+        <v>0.03523515173464647</v>
       </c>
       <c r="C58">
-        <v>0.08147754969949096</v>
+        <v>-0.03892285463547119</v>
       </c>
       <c r="D58">
-        <v>-0.9704012369652683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6548192152956163</v>
+      </c>
+      <c r="E58">
+        <v>-0.6491758082028711</v>
+      </c>
+      <c r="F58">
+        <v>0.3174037761363273</v>
+      </c>
+      <c r="G58">
+        <v>0.02179848599099129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.145081334543734</v>
+        <v>0.1496512141602105</v>
       </c>
       <c r="C59">
-        <v>-0.2172015543339596</v>
+        <v>0.2021352514573519</v>
       </c>
       <c r="D59">
-        <v>-0.01398488529131437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0218854852255855</v>
+      </c>
+      <c r="E59">
+        <v>-0.01532330601891584</v>
+      </c>
+      <c r="F59">
+        <v>-0.03704497162278261</v>
+      </c>
+      <c r="G59">
+        <v>-0.02370309807451393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3096602698013324</v>
+        <v>0.2815116294009678</v>
       </c>
       <c r="C60">
-        <v>0.09376747392022811</v>
+        <v>-0.09459991867128917</v>
       </c>
       <c r="D60">
-        <v>0.001276912127009578</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1600644995944739</v>
+      </c>
+      <c r="E60">
+        <v>0.2896330334822311</v>
+      </c>
+      <c r="F60">
+        <v>0.1486532581124011</v>
+      </c>
+      <c r="G60">
+        <v>0.0635115741510347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03594099785291555</v>
+        <v>0.04035273612113772</v>
       </c>
       <c r="C61">
-        <v>0.0624580098753156</v>
+        <v>-0.06144668981790359</v>
       </c>
       <c r="D61">
-        <v>-0.002918469802622571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04192890822391226</v>
+      </c>
+      <c r="E61">
+        <v>0.004236440958831223</v>
+      </c>
+      <c r="F61">
+        <v>-0.08767632778625745</v>
+      </c>
+      <c r="G61">
+        <v>0.001567683614289642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01663931872304324</v>
+        <v>0.01694282369688634</v>
       </c>
       <c r="C63">
-        <v>0.02803753809644374</v>
+        <v>-0.02844771097450484</v>
       </c>
       <c r="D63">
-        <v>0.01703442485388864</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01508010939789695</v>
+      </c>
+      <c r="E63">
+        <v>-0.01409851087172737</v>
+      </c>
+      <c r="F63">
+        <v>-0.09059678095420794</v>
+      </c>
+      <c r="G63">
+        <v>0.01957875730364284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04781583079945978</v>
+        <v>0.05410072006160972</v>
       </c>
       <c r="C64">
-        <v>0.02916026578024533</v>
+        <v>-0.04930835037736182</v>
       </c>
       <c r="D64">
-        <v>0.01528759355270427</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01044251056542745</v>
+      </c>
+      <c r="E64">
+        <v>0.002520514929676654</v>
+      </c>
+      <c r="F64">
+        <v>-0.09464108731619682</v>
+      </c>
+      <c r="G64">
+        <v>-0.01168807434077889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08569147116058494</v>
+        <v>0.06707487169055297</v>
       </c>
       <c r="C65">
-        <v>0.06306422139455951</v>
+        <v>-0.04282852998511522</v>
       </c>
       <c r="D65">
-        <v>-0.007203209695000552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0768717353813467</v>
+      </c>
+      <c r="E65">
+        <v>0.008458847314205214</v>
+      </c>
+      <c r="F65">
+        <v>-0.03690328659902348</v>
+      </c>
+      <c r="G65">
+        <v>-0.006197326049316455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06011422939098797</v>
+        <v>0.05066557132670248</v>
       </c>
       <c r="C66">
-        <v>0.1206760915829134</v>
+        <v>-0.09713597140667606</v>
       </c>
       <c r="D66">
-        <v>-0.009333049915937941</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07387502595101833</v>
+      </c>
+      <c r="E66">
+        <v>0.01532326703264989</v>
+      </c>
+      <c r="F66">
+        <v>-0.0910951929464844</v>
+      </c>
+      <c r="G66">
+        <v>-0.01399252115872592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06256456367161009</v>
+        <v>0.05130693776538427</v>
       </c>
       <c r="C67">
-        <v>0.02668088984354448</v>
+        <v>-0.0263686088671132</v>
       </c>
       <c r="D67">
-        <v>0.0170135914300079</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.009240345867508111</v>
+      </c>
+      <c r="E67">
+        <v>-0.006772847706683765</v>
+      </c>
+      <c r="F67">
+        <v>-0.07013954287354245</v>
+      </c>
+      <c r="G67">
+        <v>0.009376470128545183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.124557062436271</v>
+        <v>0.1514492062985427</v>
       </c>
       <c r="C68">
-        <v>-0.2867445084616833</v>
+        <v>0.2631115577973438</v>
       </c>
       <c r="D68">
-        <v>-0.02816478811912281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01110399602076606</v>
+      </c>
+      <c r="E68">
+        <v>-0.04213248164539885</v>
+      </c>
+      <c r="F68">
+        <v>-0.01941032689658172</v>
+      </c>
+      <c r="G68">
+        <v>-0.001180766174532625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08513346857698013</v>
+        <v>0.08767583700311932</v>
       </c>
       <c r="C69">
-        <v>0.06682315813113585</v>
+        <v>-0.08151273365619592</v>
       </c>
       <c r="D69">
-        <v>0.03366828926552518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01168246878279316</v>
+      </c>
+      <c r="E69">
+        <v>-0.01334135127104648</v>
+      </c>
+      <c r="F69">
+        <v>-0.09862711973083692</v>
+      </c>
+      <c r="G69">
+        <v>0.008820275766197795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1254745698090424</v>
+        <v>0.1398313173914092</v>
       </c>
       <c r="C71">
-        <v>-0.2379290194661653</v>
+        <v>0.2364683457113665</v>
       </c>
       <c r="D71">
-        <v>-0.02897002105795354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02091120450503441</v>
+      </c>
+      <c r="E71">
+        <v>-0.0425842112274236</v>
+      </c>
+      <c r="F71">
+        <v>-0.06548892529314594</v>
+      </c>
+      <c r="G71">
+        <v>0.01613229542425703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07791473267729794</v>
+        <v>0.088414674205938</v>
       </c>
       <c r="C72">
-        <v>0.05864282477354126</v>
+        <v>-0.05760204439010272</v>
       </c>
       <c r="D72">
-        <v>0.04546974698096488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00827223858882899</v>
+      </c>
+      <c r="E72">
+        <v>0.02281480513496522</v>
+      </c>
+      <c r="F72">
+        <v>-0.0787516809740274</v>
+      </c>
+      <c r="G72">
+        <v>0.009362851822452618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.43936041155202</v>
+        <v>0.3526933839785898</v>
       </c>
       <c r="C73">
-        <v>0.0904410799290857</v>
+        <v>-0.07430697590756702</v>
       </c>
       <c r="D73">
-        <v>-0.0176375091101461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3431929075210275</v>
+      </c>
+      <c r="E73">
+        <v>0.5171310912781879</v>
+      </c>
+      <c r="F73">
+        <v>0.3220578862810197</v>
+      </c>
+      <c r="G73">
+        <v>0.153001528231763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1144507631288515</v>
+        <v>0.1117807060107904</v>
       </c>
       <c r="C74">
-        <v>0.117017822028247</v>
+        <v>-0.1016645470682093</v>
       </c>
       <c r="D74">
-        <v>0.02572401648120875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01786465200845219</v>
+      </c>
+      <c r="E74">
+        <v>-0.06258065615839996</v>
+      </c>
+      <c r="F74">
+        <v>-0.07882213047264532</v>
+      </c>
+      <c r="G74">
+        <v>0.05637567824402447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2615224774970029</v>
+        <v>0.2569515323303986</v>
       </c>
       <c r="C75">
-        <v>0.1225367127089819</v>
+        <v>-0.1379020686018941</v>
       </c>
       <c r="D75">
-        <v>0.03950430356101751</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1040412394184734</v>
+      </c>
+      <c r="E75">
+        <v>-0.1161989725565479</v>
+      </c>
+      <c r="F75">
+        <v>-0.02799018476169365</v>
+      </c>
+      <c r="G75">
+        <v>0.05757886986892007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1159479384286342</v>
+        <v>0.1288872734632314</v>
       </c>
       <c r="C76">
-        <v>0.1027951114034652</v>
+        <v>-0.1037093784577051</v>
       </c>
       <c r="D76">
-        <v>0.03260154251982447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04685624571070328</v>
+      </c>
+      <c r="E76">
+        <v>-0.07959224688295478</v>
+      </c>
+      <c r="F76">
+        <v>-0.0811038881473595</v>
+      </c>
+      <c r="G76">
+        <v>0.04356804899460205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07082770624790735</v>
+        <v>0.06698619132903157</v>
       </c>
       <c r="C77">
-        <v>0.05990341564781386</v>
+        <v>-0.064214009383987</v>
       </c>
       <c r="D77">
-        <v>-0.02785325430541262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06015715864556707</v>
+      </c>
+      <c r="E77">
+        <v>-0.03838753524511507</v>
+      </c>
+      <c r="F77">
+        <v>-0.1031950359069662</v>
+      </c>
+      <c r="G77">
+        <v>-0.1437707240253796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04299065684704605</v>
+        <v>0.04164240971764325</v>
       </c>
       <c r="C78">
-        <v>0.0484795669825881</v>
+        <v>-0.05496287562873749</v>
       </c>
       <c r="D78">
-        <v>-0.004132871579979535</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06168427208831758</v>
+      </c>
+      <c r="E78">
+        <v>0.01936636381509361</v>
+      </c>
+      <c r="F78">
+        <v>-0.09714065369579826</v>
+      </c>
+      <c r="G78">
+        <v>-0.007522582528719144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01033462218111024</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03169929693807669</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03662361825822393</v>
+      </c>
+      <c r="E79">
+        <v>-0.04008113896063533</v>
+      </c>
+      <c r="F79">
+        <v>-0.03157722692861772</v>
+      </c>
+      <c r="G79">
+        <v>0.03140822194745827</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04810010176993141</v>
+        <v>0.03891074956934581</v>
       </c>
       <c r="C80">
-        <v>0.05780701482423527</v>
+        <v>-0.0460444068528468</v>
       </c>
       <c r="D80">
-        <v>-0.01786376396498884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04573966578773106</v>
+      </c>
+      <c r="E80">
+        <v>-0.002333453292051667</v>
+      </c>
+      <c r="F80">
+        <v>-0.03551351466290507</v>
+      </c>
+      <c r="G80">
+        <v>-0.04774963578297709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1364704502722074</v>
+        <v>0.1411717880294781</v>
       </c>
       <c r="C81">
-        <v>0.08139438861703265</v>
+        <v>-0.09406643181861307</v>
       </c>
       <c r="D81">
-        <v>0.03178106970536864</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07572079285504497</v>
+      </c>
+      <c r="E81">
+        <v>-0.09516215819484496</v>
+      </c>
+      <c r="F81">
+        <v>-0.04090768175542992</v>
+      </c>
+      <c r="G81">
+        <v>0.04958767324313101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.06919057665153197</v>
+        <v>0.1890693847284801</v>
       </c>
       <c r="C82">
-        <v>0.04060667498834704</v>
+        <v>-0.1362516910477703</v>
       </c>
       <c r="D82">
-        <v>0.01852286240629144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2118409685094048</v>
+      </c>
+      <c r="E82">
+        <v>-0.04916696319604348</v>
+      </c>
+      <c r="F82">
+        <v>-0.0451978003313698</v>
+      </c>
+      <c r="G82">
+        <v>0.002794303536096041</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02730199496738367</v>
+        <v>0.02733035354989763</v>
       </c>
       <c r="C83">
-        <v>0.02051298304701458</v>
+        <v>-0.03630706773041208</v>
       </c>
       <c r="D83">
-        <v>-0.01502203305387381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03254083704961672</v>
+      </c>
+      <c r="E83">
+        <v>0.006339536739317531</v>
+      </c>
+      <c r="F83">
+        <v>-0.05077601966110214</v>
+      </c>
+      <c r="G83">
+        <v>-0.02964416221694535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2421487620368054</v>
+        <v>0.2108768431528218</v>
       </c>
       <c r="C85">
-        <v>0.1203533969810033</v>
+        <v>-0.1213696648369898</v>
       </c>
       <c r="D85">
-        <v>0.1121323581121286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1034639530271641</v>
+      </c>
+      <c r="E85">
+        <v>-0.0377891216927098</v>
+      </c>
+      <c r="F85">
+        <v>0.01165255867895736</v>
+      </c>
+      <c r="G85">
+        <v>0.1086552938359409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01280452471577788</v>
+        <v>0.01469438812661833</v>
       </c>
       <c r="C86">
-        <v>0.02675981708288229</v>
+        <v>-0.03059564628218539</v>
       </c>
       <c r="D86">
-        <v>-0.007268819386084361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07275759396232716</v>
+      </c>
+      <c r="E86">
+        <v>-0.001599208398706985</v>
+      </c>
+      <c r="F86">
+        <v>-0.160046552487693</v>
+      </c>
+      <c r="G86">
+        <v>-0.02626432133881536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01283671116694704</v>
+        <v>0.02170867978667609</v>
       </c>
       <c r="C87">
-        <v>0.02686316096659371</v>
+        <v>-0.01818010545519574</v>
       </c>
       <c r="D87">
-        <v>-0.07417268269531049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09635625268287562</v>
+      </c>
+      <c r="E87">
+        <v>-0.04784496964117094</v>
+      </c>
+      <c r="F87">
+        <v>-0.1110490298548812</v>
+      </c>
+      <c r="G87">
+        <v>-0.04805109959904839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09974731586956011</v>
+        <v>0.09003832578283616</v>
       </c>
       <c r="C88">
-        <v>0.0693394221311297</v>
+        <v>-0.06148620446789747</v>
       </c>
       <c r="D88">
-        <v>0.01805702300242496</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007706942080252327</v>
+      </c>
+      <c r="E88">
+        <v>-0.01248935967583815</v>
+      </c>
+      <c r="F88">
+        <v>-0.07825422139803476</v>
+      </c>
+      <c r="G88">
+        <v>-0.03492569403098393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1977503520735724</v>
+        <v>0.2152977300547777</v>
       </c>
       <c r="C89">
-        <v>-0.3677982049139854</v>
+        <v>0.3763479844995443</v>
       </c>
       <c r="D89">
-        <v>0.01915934267853621</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01874066478610521</v>
+      </c>
+      <c r="E89">
+        <v>-0.01038820383224456</v>
+      </c>
+      <c r="F89">
+        <v>-0.07945937521755153</v>
+      </c>
+      <c r="G89">
+        <v>-0.08992279724392846</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1860595092068281</v>
+        <v>0.1990154353415894</v>
       </c>
       <c r="C90">
-        <v>-0.3466713068582412</v>
+        <v>0.3200031977306844</v>
       </c>
       <c r="D90">
-        <v>-0.02113983428643236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01242436804823052</v>
+      </c>
+      <c r="E90">
+        <v>-0.0514470182508349</v>
+      </c>
+      <c r="F90">
+        <v>-0.05131241703650669</v>
+      </c>
+      <c r="G90">
+        <v>-0.02444889306142664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1996896967483976</v>
+        <v>0.1938125131935719</v>
       </c>
       <c r="C91">
-        <v>0.1106651604115057</v>
+        <v>-0.1344404568953926</v>
       </c>
       <c r="D91">
-        <v>0.04330937827889542</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09196954974377151</v>
+      </c>
+      <c r="E91">
+        <v>-0.09719202169230494</v>
+      </c>
+      <c r="F91">
+        <v>-0.05572429943034559</v>
+      </c>
+      <c r="G91">
+        <v>0.04631842852255373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1770389736960618</v>
+        <v>0.181573924215011</v>
       </c>
       <c r="C92">
-        <v>-0.2735734028583356</v>
+        <v>0.2778620000650934</v>
       </c>
       <c r="D92">
-        <v>-0.01526527788885339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005663159456069203</v>
+      </c>
+      <c r="E92">
+        <v>-0.07464918276944395</v>
+      </c>
+      <c r="F92">
+        <v>-0.07394854130338724</v>
+      </c>
+      <c r="G92">
+        <v>-0.02725922119926636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1991484330383107</v>
+        <v>0.2213532514069271</v>
       </c>
       <c r="C93">
-        <v>-0.3301104598216604</v>
+        <v>0.3212740061253112</v>
       </c>
       <c r="D93">
-        <v>-0.01974464998944652</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002688020603556415</v>
+      </c>
+      <c r="E93">
+        <v>-0.03821277385922247</v>
+      </c>
+      <c r="F93">
+        <v>-0.05677314139947525</v>
+      </c>
+      <c r="G93">
+        <v>0.01354545225121212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2752722518402893</v>
+        <v>0.3421443669081517</v>
       </c>
       <c r="C94">
-        <v>0.1428130613717159</v>
+        <v>-0.1904261039690059</v>
       </c>
       <c r="D94">
-        <v>0.07959577650070096</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4207435018090945</v>
+      </c>
+      <c r="E94">
+        <v>-0.2880423355206166</v>
+      </c>
+      <c r="F94">
+        <v>0.4392975303321572</v>
+      </c>
+      <c r="G94">
+        <v>-0.2049603234608319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08260987624449263</v>
+        <v>0.08057531819861109</v>
       </c>
       <c r="C95">
-        <v>0.0929595446963888</v>
+        <v>-0.08517315537486342</v>
       </c>
       <c r="D95">
-        <v>-0.05943287614786937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1402029841004432</v>
+      </c>
+      <c r="E95">
+        <v>0.1435067886367618</v>
+      </c>
+      <c r="F95">
+        <v>-0.01579046619257689</v>
+      </c>
+      <c r="G95">
+        <v>-0.9086291447055066</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2100132962093561</v>
+        <v>0.1916666560981207</v>
       </c>
       <c r="C98">
-        <v>0.03843216997507424</v>
+        <v>-0.04027537512650613</v>
       </c>
       <c r="D98">
-        <v>-0.0319133785363729</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.15173896502554</v>
+      </c>
+      <c r="E98">
+        <v>0.1763966030842822</v>
+      </c>
+      <c r="F98">
+        <v>0.04375239045433252</v>
+      </c>
+      <c r="G98">
+        <v>0.1067510517289396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0115606974431809</v>
+        <v>0.008455915501116322</v>
       </c>
       <c r="C101">
-        <v>0.021111002861953</v>
+        <v>-0.02130349270010309</v>
       </c>
       <c r="D101">
-        <v>0.01173332273151208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01388270036509648</v>
+      </c>
+      <c r="E101">
+        <v>-0.0119774420401135</v>
+      </c>
+      <c r="F101">
+        <v>-0.09751805864118521</v>
+      </c>
+      <c r="G101">
+        <v>-0.005412735228222143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1214252903199821</v>
+        <v>0.124504052470643</v>
       </c>
       <c r="C102">
-        <v>0.07509738303292712</v>
+        <v>-0.09665536861852735</v>
       </c>
       <c r="D102">
-        <v>0.03189510305037225</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0467092921326865</v>
+      </c>
+      <c r="E102">
+        <v>-0.01094658022764604</v>
+      </c>
+      <c r="F102">
+        <v>-0.02924726563987097</v>
+      </c>
+      <c r="G102">
+        <v>0.01289158718017517</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
